--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Aysén.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Aysén.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Rcb71d35c88f549f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R0f2f6d2f93504612"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13781</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1751916.5520644</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4729164.44</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5666.634699</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13855</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1684657.9118729</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3860481.44</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5807.16662</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13938</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1668576.8302482</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3590063.04</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6213.02366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14060</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1612135.2190611</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3716548.28</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5834.926878</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1619588.9917881</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5245978.92</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6380.711366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14184</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1634199.4098279</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4032174.3461538</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7139.632644</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14269</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1625204.6800756</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3123843.8076923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6387.741973</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14358</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1602368.1892324</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2393849.1153846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6456.971116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14430</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1713091.4986833</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2182092.3076923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6406.26334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14518</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1669606.6498829</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2268161.5925925</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6976.479181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14613</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1675673.3559844</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2315317.3333333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6946.809709</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14653</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1805292.6393912</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2015535.3703703</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7374.976935</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14722</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1856383.0235701</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2305796.2592592</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7392.248943</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14750</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1795332.5385084</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3266116.7407407</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7473.362502</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14824</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1772172.8443065</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3839310.4444444</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7096.56929</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14949</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1795603.4695966</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3690134.8518518</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7504.911991</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15249</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1767788.989114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4090985.074074</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8206.685616</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15350</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1810483.7283387</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3433399.7777777</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8089.325568</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1765020.8237003</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3533996.7777777</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7690.760623</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15545</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1705865.4315857</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3143867.8928571</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8043.062629</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15623</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1788631.6356013</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2916613.8214285</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8070.641996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15683</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1741187.2716954</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3366150.8928571</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8428.016087</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15774</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1693772.4392037</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2809725.8965517</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8629.812431</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15828</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1762741.2607404</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2370453</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9606.635145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15890</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1843307.7662051</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2225152.0344827</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9517.110082</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15969</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1895295.7064938</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3999413.1034482</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9669.545916</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16056</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1840458.7485675</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4621652.2142857</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9813.445948</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16159</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1828894.5141407</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4883531.3666666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9850.551852</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16251</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1882232.9292966</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4543523.1666666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9927.825455</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16357</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1932525.6886959</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4540500.0689655</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10104.846861</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16469</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1933102.3298318</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6393666.0689655</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10358.274875</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16575</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1881129.2360181</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4873527.4666666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9341.700015</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16698</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1935654.1619355</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4539403.7</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10557.896945</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16799</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1958069.35264</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6347662.1666666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10570.124733</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16876</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1950504.6668641</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8315882.3333333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10467.11041</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16989</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2069807.9723939</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6497025.7741935</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12032.758247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17095</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2092408.0279613</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6024374.1612903</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11722.813328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17146</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2012288.6498891</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5857396.6129032</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11233.276513</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17230</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2022829.6032501</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5494436.4848484</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12058.735854</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17337</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2001955.8373421</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8320282.1875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11749.929472</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17433</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1957925.3329891</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7436590.8125</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12717.169279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17468</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2040836.5700709</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8414405.1818181</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12927.89465</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17570</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2040297.9312464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9423476.9393939</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12479.087395</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17691</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1995969.4857272</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10830450.617647</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11770.887692</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17746</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2057536.9726699</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13740971.882352</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12288.274938</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17814</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2054206.5382283</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13718313.971428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12343.713216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2043618.7861818</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13177091.828571</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11944.144799</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17965</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2118725.6684664</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11789958.388888</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13363.637512</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18054</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2175488.2320815</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10611954.916666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12825.825714</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18122</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2079473.6447963</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9741360.7222222</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12796.074083</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18237</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2089072.3220376</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7967035.5135135</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13395.020606</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18326</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2035083.4517625</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7652463.4736842</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13599.758354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18431</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2033384.6263903</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7001687.5384615</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14087.243325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18513</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2075107.0677902</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6800070.8717948</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14533.997688</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18618</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2058027.58524</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6712921.2</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13200.514548</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18707</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1948870.3821564</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6428508.475</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13457.144714</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18763</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2015552.8569525</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6286947.8</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14295.987564</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18860</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1981935.5221102</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5691310.6666666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13638.911034</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18934</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1945313.1792542</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5439615.0416666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14174.49415</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19048</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2017079.3156761</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5521129.3137254</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16272.831796</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2093169.2415739</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6076131.3461538</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15148.680667</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19165</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2090019.9805896</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5498021</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15346.48389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19238</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2051241.0197525</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5393112.5</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16282.312628</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19356</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2014924.144503</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5075109.2962963</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14915.04543</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19454</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1993929.9457695</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4700416.7547169</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15903.987926</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19524</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2007738.6208768</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4376692.6792452</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17036.500453</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19573</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2008233.3105298</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4609343.0754717</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15314.518096</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19681</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1899625.1050759</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4597782</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15837.109871</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19744</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2040645.9716369</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4816277.7777777</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16167.806493</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19856</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1947463.7611301</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4544483.6428571</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15574.406122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19963</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1909807.2274708</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3716458.5263157</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15984.269077</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20071</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1993125.5099397</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3519267.0877193</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18183.174663</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20177</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2016320.0338504</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3596959.0350877</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17260.267566</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20294</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1997985.1328964</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3908189.5862069</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17250.350726</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20400</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2045524.3386764</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4329572.1551724</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17897.47917</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20538</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1970752.5494692</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5208601.3157894</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18307.156881</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20681</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1971960.5595474</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5800457.5614035</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18545.815041</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20757</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2015892.7024136</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8177532.7413793</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19466.070439</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1991347.1006467</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8445543.4137931</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17681.595705</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20928</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1980968.5304854</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6641732.5263157</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18203.29196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21280</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2112165.4839755</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6507762.8245614</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17783.187177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21334</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2099452.0775757</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7138129.3157894</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18924.062527</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21404</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2109238.2717716</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6543976.8771929</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19158.282949</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2236300.9689247</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4963497.3</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20555.68159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2215959.4244467</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5528906.671875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20689.780017</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21577</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2213632.3946331</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6313372.876923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21610.731971</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21642</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2287684.8778301</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10099640.705882</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22969.367528</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21614</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2448495.0635699</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11376617.1</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24494.166198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21591</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2662047.0795238</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11549545.09589</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24889.608044</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21548</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2801878.5542973</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8354962.7027027</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25470.108172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21558</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2915047.8688653</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7613358.6</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27431.175129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21602</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3181594.8611702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7348012.7948718</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46168.519942</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21655</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3463589.0621103</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8012621.1728395</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46716.834713</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21754</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3481110.8073917</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8733021.3086419</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43602.314138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21878</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3521209.8878782</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7847497.9069767</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39731.102982</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21989</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3543542.7730228</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7245805.3103448</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59008.943061</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>53957.767407</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>50790.423762</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>50098.647998</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>48590.604043</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>67139.630146</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>63101.097247</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>62671.474532</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>59708.158157</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>59364.247284</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>58069.872154</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>56066.621159</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>57458.483629</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>53452.805819</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>51487.188101</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>49239.886232</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>47208.80512</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>45903.138877</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>45277.761129</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>43438.17909</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>42024.602862</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>42314.369472</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>40641.62342</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>39497.998724</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>42120.849657</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>39659.12719</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>39983.950211</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>39726.481941</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>40202.994744</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>38783.834909</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>41029.026024</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>37925.894302</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>38021.996365</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>37924.214026</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>36451.998352</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>36532.685306</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>39159.530019</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>38255.572871</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>38182.933508</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>38524.808208</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>39469.091192</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>38632.164198</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>39453.940077</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>38126.406107</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
